--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pop24\Desktop\project\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pop24\Desktop\project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2287C97A-5C3B-4A57-94E4-508F21BDC0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EB7479-F49D-4DE6-81C3-67B6C3994FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
+    <workbookView xWindow="570" yWindow="750" windowWidth="21600" windowHeight="11160" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,22 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5. 교육</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1 교육 계획</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1.1 검색 가이드 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1.1 검색 기능 교육</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.계획</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,6 +358,22 @@
   </si>
   <si>
     <t>4.1.4 ELK 보안 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 교육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 교육 계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.1 검색 가이드 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.2 검색 기능 교육</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,24 +713,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,6 +729,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F753AA6-DE5C-49F2-BB7C-CC2DC561C87B}">
   <dimension ref="B2:BM36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C18:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1086,55 +1086,55 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="43"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="54">
         <v>44656</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="49"/>
     </row>
     <row r="4" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="49"/>
     </row>
     <row r="5" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="49"/>
     </row>
     <row r="6" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="54">
         <v>44659</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="49"/>
     </row>
     <row r="7" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="9" spans="2:65" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H9" s="4"/>
@@ -1168,70 +1168,70 @@
       <c r="BM9" s="1"/>
     </row>
     <row r="10" spans="2:65" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="50" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52" t="s">
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52" t="s">
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52" t="s">
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="53"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="47"/>
     </row>
     <row r="11" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="48"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1348,93 +1348,93 @@
       <c r="BM11" s="1"/>
     </row>
     <row r="12" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="48"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="J12" s="54" t="s">
+      <c r="N12" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="T12" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="U12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="V12" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="W12" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="X12" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y12" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA12" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB12" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC12" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD12" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF12" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG12" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH12" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI12" s="44" t="s">
         <v>86</v>
-      </c>
-      <c r="K12" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="O12" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="P12" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="R12" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="S12" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="T12" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="U12" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="V12" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="W12" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="X12" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y12" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z12" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA12" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB12" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC12" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD12" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE12" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF12" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG12" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH12" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI12" s="50" t="s">
-        <v>90</v>
       </c>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="13" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>45</v>
@@ -1488,7 +1488,7 @@
       <c r="I13" s="42"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
-      <c r="L13" s="49"/>
+      <c r="L13" s="43"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
@@ -1547,7 +1547,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="16"/>
       <c r="D14" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>45</v>
@@ -1562,7 +1562,7 @@
       <c r="I14" s="42"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="49"/>
+      <c r="L14" s="43"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
@@ -1621,7 +1621,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="16"/>
       <c r="D15" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>47</v>
@@ -1637,7 +1637,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="49"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -1713,8 +1713,8 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -1786,7 +1786,7 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="49"/>
+      <c r="N17" s="43"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="14"/>
@@ -1838,13 +1838,13 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
       <c r="X18" s="14"/>
@@ -1891,7 +1891,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="49"/>
+      <c r="U19" s="43"/>
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
@@ -1910,10 +1910,10 @@
     <row r="20" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="30"/>
       <c r="C20" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>47</v>
@@ -1938,7 +1938,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="49"/>
+      <c r="V20" s="43"/>
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
@@ -1956,10 +1956,10 @@
     <row r="21" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="30"/>
       <c r="C21" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>47</v>
@@ -1984,7 +1984,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="49"/>
+      <c r="V21" s="43"/>
       <c r="W21" s="13"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
@@ -2004,7 +2004,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>61</v>
@@ -2033,9 +2033,9 @@
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
       <c r="AB22" s="14"/>
@@ -2080,7 +2080,7 @@
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
-      <c r="Z23" s="49"/>
+      <c r="Z23" s="43"/>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
@@ -2124,7 +2124,7 @@
       <c r="W24" s="14"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
-      <c r="Z24" s="49"/>
+      <c r="Z24" s="43"/>
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
@@ -2139,7 +2139,7 @@
       <c r="B25" s="30"/>
       <c r="C25" s="22"/>
       <c r="D25" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>47</v>
@@ -2168,7 +2168,7 @@
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
-      <c r="Z25" s="49"/>
+      <c r="Z25" s="43"/>
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
@@ -2182,7 +2182,7 @@
     <row r="26" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="30"/>
       <c r="C26" s="39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>64</v>
@@ -2215,7 +2215,7 @@
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="49"/>
+      <c r="AA26" s="43"/>
       <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
@@ -2231,7 +2231,7 @@
         <v>56</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E27" s="40" t="s">
         <v>47</v>
@@ -2262,8 +2262,8 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="14"/>
-      <c r="AB27" s="49"/>
-      <c r="AC27" s="49"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="43"/>
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="14"/>
@@ -2273,13 +2273,13 @@
     </row>
     <row r="28" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>47</v>
@@ -2311,9 +2311,9 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="14"/>
       <c r="AB28" s="14"/>
-      <c r="AC28" s="49"/>
-      <c r="AD28" s="49"/>
-      <c r="AE28" s="49"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="43"/>
       <c r="AF28" s="14"/>
       <c r="AG28" s="14"/>
       <c r="AH28" s="1"/>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="29" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="38" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>47</v>
@@ -2362,7 +2362,7 @@
       <c r="AC29" s="14"/>
       <c r="AD29" s="14"/>
       <c r="AE29" s="14"/>
-      <c r="AF29" s="49"/>
+      <c r="AF29" s="43"/>
       <c r="AG29" s="14"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="28"/>
@@ -2371,7 +2371,7 @@
       <c r="B30" s="31"/>
       <c r="C30" s="32"/>
       <c r="D30" s="32" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>47</v>
@@ -2407,7 +2407,7 @@
       <c r="AD30" s="35"/>
       <c r="AE30" s="35"/>
       <c r="AF30" s="35"/>
-      <c r="AG30" s="49"/>
+      <c r="AG30" s="43"/>
       <c r="AH30" s="35"/>
       <c r="AI30" s="36"/>
     </row>
@@ -2431,6 +2431,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="B10:B12"/>
@@ -2438,11 +2443,6 @@
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pop24\Desktop\project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EB7479-F49D-4DE6-81C3-67B6C3994FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3FE93C-8BBD-4762-81C1-42BFE193826F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="750" windowWidth="21600" windowHeight="11160" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
+    <workbookView minimized="1" xWindow="570" yWindow="750" windowWidth="21600" windowHeight="11160" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -734,6 +734,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -744,9 +747,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,24 +1065,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F753AA6-DE5C-49F2-BB7C-CC2DC561C87B}">
   <dimension ref="B2:BM36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C18:C21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.83203125" style="4"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.875" style="4"/>
     <col min="8" max="8" width="3" style="1" customWidth="1"/>
-    <col min="9" max="65" width="4.58203125" style="4" customWidth="1"/>
-    <col min="66" max="66" width="4.58203125" style="1" customWidth="1"/>
-    <col min="67" max="16384" width="8.83203125" style="1"/>
+    <col min="9" max="65" width="4.625" style="4" customWidth="1"/>
+    <col min="66" max="66" width="4.625" style="1" customWidth="1"/>
+    <col min="67" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1091,25 +1091,25 @@
       </c>
       <c r="D2" s="49"/>
     </row>
-    <row r="3" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="50">
         <v>44656</v>
       </c>
       <c r="D3" s="49"/>
     </row>
-    <row r="4" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="50" t="s">
         <v>50</v>
       </c>
       <c r="D4" s="49"/>
     </row>
-    <row r="5" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1118,16 +1118,16 @@
       </c>
       <c r="D5" s="49"/>
     </row>
-    <row r="6" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="50">
         <v>44659</v>
       </c>
       <c r="D6" s="49"/>
     </row>
-    <row r="7" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="D7" s="49"/>
     </row>
-    <row r="9" spans="2:65" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:65" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="4"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
@@ -1167,23 +1167,23 @@
       <c r="BL9" s="1"/>
       <c r="BM9" s="1"/>
     </row>
-    <row r="10" spans="2:65" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="52" t="s">
+    <row r="10" spans="2:65" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="51" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="26" t="s">
@@ -1225,13 +1225,13 @@
       <c r="AH10" s="46"/>
       <c r="AI10" s="47"/>
     </row>
-    <row r="11" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="53"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+    <row r="11" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="54"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1347,13 +1347,13 @@
       <c r="BL11" s="1"/>
       <c r="BM11" s="1"/>
     </row>
-    <row r="12" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="53"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+    <row r="12" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="54"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="13"/>
       <c r="I12" s="48" t="s">
         <v>81</v>
@@ -1465,7 +1465,7 @@
       <c r="BL12" s="1"/>
       <c r="BM12" s="1"/>
     </row>
-    <row r="13" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="37" t="s">
         <v>65</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>45</v>
       </c>
       <c r="F13" s="12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>15</v>
@@ -1543,7 +1543,7 @@
       <c r="BL13" s="1"/>
       <c r="BM13" s="1"/>
     </row>
-    <row r="14" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="29"/>
       <c r="C14" s="16"/>
       <c r="D14" s="15" t="s">
@@ -1553,7 +1553,7 @@
         <v>45</v>
       </c>
       <c r="F14" s="18">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>15</v>
@@ -1617,7 +1617,7 @@
       <c r="BL14" s="1"/>
       <c r="BM14" s="1"/>
     </row>
-    <row r="15" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="29"/>
       <c r="C15" s="16"/>
       <c r="D15" s="15" t="s">
@@ -1689,7 +1689,7 @@
       <c r="BL15" s="1"/>
       <c r="BM15" s="1"/>
     </row>
-    <row r="16" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="38" t="s">
         <v>51</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="BL16" s="1"/>
       <c r="BM16" s="1"/>
     </row>
-    <row r="17" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="30"/>
       <c r="C17" s="22"/>
       <c r="D17" s="13" t="s">
@@ -1812,7 +1812,7 @@
       <c r="BL17" s="1"/>
       <c r="BM17" s="1"/>
     </row>
-    <row r="18" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="37" t="s">
         <v>52</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="BL18" s="1"/>
       <c r="BM18" s="1"/>
     </row>
-    <row r="19" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
@@ -1907,7 +1907,7 @@
       <c r="AH19" s="1"/>
       <c r="AI19" s="28"/>
     </row>
-    <row r="20" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30"/>
       <c r="C20" s="13" t="s">
         <v>72</v>
@@ -1953,7 +1953,7 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="28"/>
     </row>
-    <row r="21" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="30"/>
       <c r="C21" s="13" t="s">
         <v>75</v>
@@ -1999,7 +1999,7 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="28"/>
     </row>
-    <row r="22" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="38" t="s">
         <v>53</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="AH22" s="1"/>
       <c r="AI22" s="28"/>
     </row>
-    <row r="23" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="30"/>
       <c r="C23" s="22"/>
       <c r="D23" s="13" t="s">
@@ -2091,7 +2091,7 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="28"/>
     </row>
-    <row r="24" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="30"/>
       <c r="C24" s="22"/>
       <c r="D24" s="13" t="s">
@@ -2135,7 +2135,7 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="28"/>
     </row>
-    <row r="25" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="30"/>
       <c r="C25" s="22"/>
       <c r="D25" s="13" t="s">
@@ -2179,7 +2179,7 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="28"/>
     </row>
-    <row r="26" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="39" t="s">
         <v>69</v>
@@ -2225,7 +2225,7 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="28"/>
     </row>
-    <row r="27" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
       <c r="C27" s="39" t="s">
         <v>56</v>
@@ -2271,7 +2271,7 @@
       <c r="AH27" s="1"/>
       <c r="AI27" s="28"/>
     </row>
-    <row r="28" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
         <v>78</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="AH28" s="1"/>
       <c r="AI28" s="28"/>
     </row>
-    <row r="29" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="38" t="s">
         <v>88</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="28"/>
     </row>
-    <row r="30" spans="2:65" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:65" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="31"/>
       <c r="C30" s="32"/>
       <c r="D30" s="32" t="s">
@@ -2411,31 +2411,26 @@
       <c r="AH30" s="35"/>
       <c r="AI30" s="36"/>
     </row>
-    <row r="31" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="2:65" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="3:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="3:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="3:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="3:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="B10:B12"/>
@@ -2443,6 +2438,11 @@
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pop24\Desktop\project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3FE93C-8BBD-4762-81C1-42BFE193826F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE813284-AF83-431D-ADA1-976735546A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="570" yWindow="750" windowWidth="21600" windowHeight="11160" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -734,19 +734,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F753AA6-DE5C-49F2-BB7C-CC2DC561C87B}">
   <dimension ref="B2:BM36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18:U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1095,7 +1095,7 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="54">
         <v>44656</v>
       </c>
       <c r="D3" s="49"/>
@@ -1104,7 +1104,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="54" t="s">
         <v>50</v>
       </c>
       <c r="D4" s="49"/>
@@ -1122,7 +1122,7 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="54">
         <v>44659</v>
       </c>
       <c r="D6" s="49"/>
@@ -1168,22 +1168,22 @@
       <c r="BM9" s="1"/>
     </row>
     <row r="10" spans="2:65" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="50" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="26" t="s">
@@ -1226,12 +1226,12 @@
       <c r="AI10" s="47"/>
     </row>
     <row r="11" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="54"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1348,12 +1348,12 @@
       <c r="BM11" s="1"/>
     </row>
     <row r="12" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="54"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="13"/>
       <c r="I12" s="48" t="s">
         <v>81</v>
@@ -1553,7 +1553,7 @@
         <v>45</v>
       </c>
       <c r="F14" s="18">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>15</v>
@@ -1703,7 +1703,7 @@
         <v>47</v>
       </c>
       <c r="F16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>16</v>
@@ -2431,6 +2431,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="B10:B12"/>
@@ -2438,11 +2443,6 @@
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pop24\Desktop\project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE813284-AF83-431D-ADA1-976735546A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B6E9BF-5118-44F1-A882-BE97AACA5124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,6 +381,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="*D"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,9 +662,6 @@
     <xf numFmtId="9" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,6 +747,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F753AA6-DE5C-49F2-BB7C-CC2DC561C87B}">
-  <dimension ref="B2:BM36"/>
+  <dimension ref="B2:BM52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18:U18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1086,55 +1110,55 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="53">
         <v>44656</v>
       </c>
-      <c r="D3" s="49"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="48"/>
     </row>
     <row r="5" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="53">
         <v>44659</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="48"/>
     </row>
     <row r="9" spans="2:65" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="4"/>
@@ -1168,70 +1192,70 @@
       <c r="BM9" s="1"/>
     </row>
     <row r="10" spans="2:65" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="46" t="s">
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46" t="s">
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46" t="s">
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="47"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="46"/>
     </row>
     <row r="11" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="53"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1313,7 +1337,7 @@
       <c r="AH11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AI11" s="27" t="s">
+      <c r="AI11" s="26" t="s">
         <v>41</v>
       </c>
       <c r="AJ11" s="5"/>
@@ -1348,92 +1372,92 @@
       <c r="BM11" s="1"/>
     </row>
     <row r="12" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="53"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="48" t="s">
+      <c r="K12" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="48" t="s">
+      <c r="L12" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="48" t="s">
+      <c r="M12" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="48" t="s">
+      <c r="N12" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="O12" s="48" t="s">
+      <c r="O12" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="48" t="s">
+      <c r="P12" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="Q12" s="48" t="s">
+      <c r="Q12" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="R12" s="48" t="s">
+      <c r="R12" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="S12" s="48" t="s">
+      <c r="S12" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="T12" s="48" t="s">
+      <c r="T12" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="U12" s="48" t="s">
+      <c r="U12" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="V12" s="48" t="s">
+      <c r="V12" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="W12" s="48" t="s">
+      <c r="W12" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="X12" s="48" t="s">
+      <c r="X12" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="Y12" s="48" t="s">
+      <c r="Y12" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="Z12" s="48" t="s">
+      <c r="Z12" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="AA12" s="48" t="s">
+      <c r="AA12" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="AB12" s="48" t="s">
+      <c r="AB12" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="AC12" s="48" t="s">
+      <c r="AC12" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="AD12" s="48" t="s">
+      <c r="AD12" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="AE12" s="48" t="s">
+      <c r="AE12" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="AF12" s="48" t="s">
+      <c r="AF12" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="AG12" s="48" t="s">
+      <c r="AG12" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="AH12" s="48" t="s">
+      <c r="AH12" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="AI12" s="44" t="s">
+      <c r="AI12" s="43" t="s">
         <v>86</v>
       </c>
       <c r="AL12" s="1"/>
@@ -1466,7 +1490,7 @@
       <c r="BM12" s="1"/>
     </row>
     <row r="13" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1481,14 +1505,14 @@
       <c r="F13" s="12">
         <v>1</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="61" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="42"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
-      <c r="L13" s="43"/>
+      <c r="L13" s="42"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
@@ -1511,7 +1535,7 @@
       <c r="AF13" s="14"/>
       <c r="AG13" s="14"/>
       <c r="AH13" s="14"/>
-      <c r="AI13" s="28"/>
+      <c r="AI13" s="27"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
@@ -1544,7 +1568,7 @@
       <c r="BM13" s="1"/>
     </row>
     <row r="14" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="16"/>
       <c r="D14" s="15" t="s">
         <v>67</v>
@@ -1555,14 +1579,14 @@
       <c r="F14" s="18">
         <v>1</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="56" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="42"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="43"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
@@ -1585,7 +1609,7 @@
       <c r="AF14" s="14"/>
       <c r="AG14" s="14"/>
       <c r="AH14" s="14"/>
-      <c r="AI14" s="28"/>
+      <c r="AI14" s="27"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
@@ -1618,7 +1642,7 @@
       <c r="BM14" s="1"/>
     </row>
     <row r="15" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="16"/>
       <c r="D15" s="15" t="s">
         <v>68</v>
@@ -1629,7 +1653,7 @@
       <c r="F15" s="18">
         <v>0</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="56" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="13"/>
@@ -1637,7 +1661,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="43"/>
+      <c r="M15" s="42"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -1657,7 +1681,7 @@
       <c r="AD15" s="14"/>
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
-      <c r="AI15" s="28"/>
+      <c r="AI15" s="27"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
@@ -1690,7 +1714,7 @@
       <c r="BM15" s="1"/>
     </row>
     <row r="16" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -1705,7 +1729,7 @@
       <c r="F16" s="12">
         <v>1</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="13"/>
@@ -1713,8 +1737,8 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -1733,7 +1757,7 @@
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
-      <c r="AI16" s="28"/>
+      <c r="AI16" s="27"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
@@ -1766,7 +1790,7 @@
       <c r="BM16" s="1"/>
     </row>
     <row r="17" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="22"/>
       <c r="D17" s="13" t="s">
         <v>58</v>
@@ -1775,9 +1799,9 @@
         <v>47</v>
       </c>
       <c r="F17" s="18">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="56" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="13"/>
@@ -1786,7 +1810,7 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="43"/>
+      <c r="N17" s="42"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -1805,7 +1829,7 @@
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
-      <c r="AI17" s="28"/>
+      <c r="AI17" s="27"/>
       <c r="BI17" s="1"/>
       <c r="BJ17" s="1"/>
       <c r="BK17" s="1"/>
@@ -1813,7 +1837,7 @@
       <c r="BM17" s="1"/>
     </row>
     <row r="18" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -1826,9 +1850,9 @@
         <v>47</v>
       </c>
       <c r="F18" s="12">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="G18" s="55" t="s">
         <v>71</v>
       </c>
       <c r="H18" s="13"/>
@@ -1838,13 +1862,13 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
       <c r="X18" s="14"/>
@@ -1856,7 +1880,7 @@
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
       <c r="AF18" s="14"/>
-      <c r="AI18" s="28"/>
+      <c r="AI18" s="27"/>
       <c r="BI18" s="1"/>
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
@@ -1864,7 +1888,7 @@
       <c r="BM18" s="1"/>
     </row>
     <row r="19" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
         <v>60</v>
@@ -1875,7 +1899,7 @@
       <c r="F19" s="23">
         <v>0</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="57" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="13"/>
@@ -1891,7 +1915,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="43"/>
+      <c r="U19" s="42"/>
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
@@ -1905,10 +1929,10 @@
       <c r="AF19" s="14"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
-      <c r="AI19" s="28"/>
+      <c r="AI19" s="27"/>
     </row>
     <row r="20" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="13" t="s">
         <v>72</v>
       </c>
@@ -1921,7 +1945,7 @@
       <c r="F20" s="23">
         <v>0</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="57" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="13"/>
@@ -1938,7 +1962,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="43"/>
+      <c r="V20" s="42"/>
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
@@ -1951,10 +1975,10 @@
       <c r="AF20" s="14"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
-      <c r="AI20" s="28"/>
+      <c r="AI20" s="27"/>
     </row>
     <row r="21" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="13" t="s">
         <v>75</v>
       </c>
@@ -1967,7 +1991,7 @@
       <c r="F21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="57" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="13"/>
@@ -1984,7 +2008,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="43"/>
+      <c r="V21" s="42"/>
       <c r="W21" s="13"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
@@ -1997,10 +2021,10 @@
       <c r="AF21" s="14"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
-      <c r="AI21" s="28"/>
+      <c r="AI21" s="27"/>
     </row>
     <row r="22" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="20" t="s">
@@ -2013,9 +2037,9 @@
         <v>47</v>
       </c>
       <c r="F22" s="24">
-        <v>0</v>
-      </c>
-      <c r="G22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="13"/>
@@ -2033,9 +2057,9 @@
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
       <c r="AB22" s="14"/>
@@ -2045,10 +2069,10 @@
       <c r="AF22" s="14"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
-      <c r="AI22" s="28"/>
+      <c r="AI22" s="27"/>
     </row>
     <row r="23" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="30"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="22"/>
       <c r="D23" s="13" t="s">
         <v>62</v>
@@ -2057,9 +2081,9 @@
         <v>47</v>
       </c>
       <c r="F23" s="23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="57" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="13"/>
@@ -2080,7 +2104,7 @@
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
-      <c r="Z23" s="43"/>
+      <c r="Z23" s="42"/>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
@@ -2089,10 +2113,10 @@
       <c r="AF23" s="14"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
-      <c r="AI23" s="28"/>
+      <c r="AI23" s="27"/>
     </row>
     <row r="24" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="30"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="22"/>
       <c r="D24" s="13" t="s">
         <v>63</v>
@@ -2101,9 +2125,9 @@
         <v>47</v>
       </c>
       <c r="F24" s="23">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="57" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="13"/>
@@ -2124,7 +2148,7 @@
       <c r="W24" s="14"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
-      <c r="Z24" s="43"/>
+      <c r="Z24" s="42"/>
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
@@ -2133,10 +2157,10 @@
       <c r="AF24" s="14"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
-      <c r="AI24" s="28"/>
+      <c r="AI24" s="27"/>
     </row>
     <row r="25" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="30"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="22"/>
       <c r="D25" s="13" t="s">
         <v>87</v>
@@ -2145,9 +2169,9 @@
         <v>47</v>
       </c>
       <c r="F25" s="23">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="57" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="13"/>
@@ -2168,7 +2192,7 @@
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
-      <c r="Z25" s="43"/>
+      <c r="Z25" s="42"/>
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
@@ -2177,23 +2201,23 @@
       <c r="AF25" s="14"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
-      <c r="AI25" s="28"/>
+      <c r="AI25" s="27"/>
     </row>
     <row r="26" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="30"/>
-      <c r="C26" s="39" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="41">
-        <v>0</v>
-      </c>
-      <c r="G26" s="42" t="s">
+      <c r="F26" s="40">
+        <v>1</v>
+      </c>
+      <c r="G26" s="59" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="13"/>
@@ -2215,7 +2239,7 @@
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="43"/>
+      <c r="AA26" s="42"/>
       <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
@@ -2223,23 +2247,23 @@
       <c r="AF26" s="14"/>
       <c r="AG26" s="14"/>
       <c r="AH26" s="1"/>
-      <c r="AI26" s="28"/>
+      <c r="AI26" s="27"/>
     </row>
     <row r="27" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="30"/>
-      <c r="C27" s="39" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="38" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="40">
         <v>0</v>
       </c>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="59" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="13"/>
@@ -2262,32 +2286,32 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="14"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="43"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="14"/>
       <c r="AG27" s="14"/>
       <c r="AH27" s="1"/>
-      <c r="AI27" s="28"/>
+      <c r="AI27" s="27"/>
     </row>
     <row r="28" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="38" t="s">
         <v>79</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="40">
         <v>0</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="59" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="13"/>
@@ -2311,16 +2335,16 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="14"/>
       <c r="AB28" s="14"/>
-      <c r="AC28" s="43"/>
-      <c r="AD28" s="43"/>
-      <c r="AE28" s="43"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="42"/>
       <c r="AF28" s="14"/>
       <c r="AG28" s="14"/>
       <c r="AH28" s="1"/>
-      <c r="AI28" s="28"/>
+      <c r="AI28" s="27"/>
     </row>
     <row r="29" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="37" t="s">
         <v>88</v>
       </c>
       <c r="C29" s="20" t="s">
@@ -2335,7 +2359,7 @@
       <c r="F29" s="24">
         <v>0</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="58" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="13"/>
@@ -2362,72 +2386,165 @@
       <c r="AC29" s="14"/>
       <c r="AD29" s="14"/>
       <c r="AE29" s="14"/>
-      <c r="AF29" s="43"/>
+      <c r="AF29" s="42"/>
       <c r="AG29" s="14"/>
       <c r="AH29" s="1"/>
-      <c r="AI29" s="28"/>
+      <c r="AI29" s="27"/>
     </row>
     <row r="30" spans="2:65" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="33">
         <v>0</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="35"/>
-      <c r="AD30" s="35"/>
-      <c r="AE30" s="35"/>
-      <c r="AF30" s="35"/>
-      <c r="AG30" s="43"/>
-      <c r="AH30" s="35"/>
-      <c r="AI30" s="36"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="34"/>
+      <c r="AI30" s="35"/>
     </row>
     <row r="31" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="6"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="1"/>
+      <c r="H33" s="4"/>
+      <c r="BM33" s="1"/>
+    </row>
+    <row r="34" spans="3:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="1"/>
+      <c r="H34" s="4"/>
+      <c r="BM34" s="1"/>
+    </row>
+    <row r="35" spans="3:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="1"/>
+      <c r="H35" s="4"/>
+      <c r="BM35" s="1"/>
+    </row>
+    <row r="36" spans="3:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="6"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="4"/>
+      <c r="BM36" s="1"/>
+    </row>
+    <row r="37" spans="3:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="1"/>
+      <c r="H37" s="4"/>
+      <c r="BM37" s="1"/>
+    </row>
+    <row r="38" spans="3:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="1"/>
+      <c r="H38" s="4"/>
+      <c r="BM38" s="1"/>
+    </row>
+    <row r="39" spans="3:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="1"/>
+      <c r="H39" s="4"/>
+      <c r="BM39" s="1"/>
+    </row>
+    <row r="40" spans="3:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="1"/>
+      <c r="H40" s="4"/>
+      <c r="BM40" s="1"/>
+    </row>
+    <row r="41" spans="3:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="1"/>
+      <c r="H41" s="4"/>
+      <c r="BM41" s="1"/>
+    </row>
+    <row r="42" spans="3:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="1"/>
+      <c r="H42" s="4"/>
+      <c r="BM42" s="1"/>
+    </row>
+    <row r="43" spans="3:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="1"/>
+      <c r="H43" s="4"/>
+      <c r="BM43" s="1"/>
+    </row>
+    <row r="44" spans="3:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="1"/>
+      <c r="H44" s="4"/>
+      <c r="BM44" s="1"/>
+    </row>
+    <row r="45" spans="3:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="1"/>
+      <c r="H45" s="4"/>
+      <c r="BM45" s="1"/>
+    </row>
+    <row r="46" spans="3:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="1"/>
+      <c r="H46" s="4"/>
+      <c r="BM46" s="1"/>
+    </row>
+    <row r="47" spans="3:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="1"/>
+      <c r="H47" s="4"/>
+      <c r="BM47" s="1"/>
+    </row>
+    <row r="48" spans="3:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="1"/>
+      <c r="H48" s="4"/>
+      <c r="BM48" s="1"/>
+    </row>
+    <row r="49" spans="7:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="1"/>
+      <c r="H49" s="4"/>
+      <c r="BM49" s="1"/>
+    </row>
+    <row r="50" spans="7:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="1"/>
+      <c r="H50" s="4"/>
+      <c r="BM50" s="1"/>
+    </row>
+    <row r="51" spans="7:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="1"/>
+      <c r="H51" s="4"/>
+      <c r="BM51" s="1"/>
+    </row>
+    <row r="52" spans="7:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="1"/>
+      <c r="H52" s="4"/>
+      <c r="BM52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pop24\Desktop\project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B6E9BF-5118-44F1-A882-BE97AACA5124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9672FDE-7707-4C0C-9424-675D8B01927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
+    <workbookView minimized="1" xWindow="28460" yWindow="6210" windowWidth="14400" windowHeight="7590" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -731,9 +731,36 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -744,33 +771,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1089,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F753AA6-DE5C-49F2-BB7C-CC2DC561C87B}">
   <dimension ref="B2:BM52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1110,55 +1110,55 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="57">
         <v>44656</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="56"/>
     </row>
     <row r="4" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="56"/>
     </row>
     <row r="5" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="57">
         <v>44659</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="56"/>
     </row>
     <row r="7" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="56"/>
     </row>
     <row r="9" spans="2:65" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="4"/>
@@ -1192,22 +1192,22 @@
       <c r="BM9" s="1"/>
     </row>
     <row r="10" spans="2:65" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="58" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="25" t="s">
@@ -1250,12 +1250,12 @@
       <c r="AI10" s="46"/>
     </row>
     <row r="11" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="52"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1372,12 +1372,12 @@
       <c r="BM11" s="1"/>
     </row>
     <row r="12" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="52"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="13"/>
       <c r="I12" s="47" t="s">
         <v>81</v>
@@ -1505,7 +1505,7 @@
       <c r="F13" s="12">
         <v>1</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="55" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="13"/>
@@ -1579,7 +1579,7 @@
       <c r="F14" s="18">
         <v>1</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="50" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="13"/>
@@ -1651,9 +1651,9 @@
         <v>47</v>
       </c>
       <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="G15" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="50" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="13"/>
@@ -1729,7 +1729,7 @@
       <c r="F16" s="12">
         <v>1</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="49" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="13"/>
@@ -1801,7 +1801,7 @@
       <c r="F17" s="18">
         <v>1</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="50" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="13"/>
@@ -1852,7 +1852,7 @@
       <c r="F18" s="12">
         <v>0.8</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="49" t="s">
         <v>71</v>
       </c>
       <c r="H18" s="13"/>
@@ -1897,9 +1897,9 @@
         <v>47</v>
       </c>
       <c r="F19" s="23">
-        <v>0</v>
-      </c>
-      <c r="G19" s="57" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="G19" s="51" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="13"/>
@@ -1945,7 +1945,7 @@
       <c r="F20" s="23">
         <v>0</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="51" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="13"/>
@@ -1989,9 +1989,9 @@
         <v>47</v>
       </c>
       <c r="F21" s="23">
-        <v>0</v>
-      </c>
-      <c r="G21" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="51" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="13"/>
@@ -2039,7 +2039,7 @@
       <c r="F22" s="24">
         <v>1</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="52" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="13"/>
@@ -2083,7 +2083,7 @@
       <c r="F23" s="23">
         <v>1</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="51" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="13"/>
@@ -2127,7 +2127,7 @@
       <c r="F24" s="23">
         <v>1</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="51" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="13"/>
@@ -2171,7 +2171,7 @@
       <c r="F25" s="23">
         <v>1</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="51" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="13"/>
@@ -2217,7 +2217,7 @@
       <c r="F26" s="40">
         <v>1</v>
       </c>
-      <c r="G26" s="59" t="s">
+      <c r="G26" s="53" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="13"/>
@@ -2261,9 +2261,9 @@
         <v>47</v>
       </c>
       <c r="F27" s="40">
-        <v>0</v>
-      </c>
-      <c r="G27" s="59" t="s">
+        <v>0.6</v>
+      </c>
+      <c r="G27" s="53" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="13"/>
@@ -2311,7 +2311,7 @@
       <c r="F28" s="40">
         <v>0</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="53" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="13"/>
@@ -2359,7 +2359,7 @@
       <c r="F29" s="24">
         <v>0</v>
       </c>
-      <c r="G29" s="58" t="s">
+      <c r="G29" s="52" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="13"/>
@@ -2403,7 +2403,7 @@
       <c r="F30" s="33">
         <v>0</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="54" t="s">
         <v>15</v>
       </c>
       <c r="H30" s="31"/>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="31" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="6"/>
-      <c r="F31" s="54"/>
+      <c r="F31" s="48"/>
     </row>
     <row r="32" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="6"/>
@@ -2548,11 +2548,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="B10:B12"/>
@@ -2560,6 +2555,11 @@
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pop24\Desktop\project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9672FDE-7707-4C0C-9424-675D8B01927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F93233-3BFE-40CB-A3F3-C1C46B25F812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="28460" yWindow="6210" windowWidth="14400" windowHeight="7590" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,30 +157,6 @@
     <t>19D</t>
   </si>
   <si>
-    <t>20D</t>
-  </si>
-  <si>
-    <t>21D</t>
-  </si>
-  <si>
-    <t>22D</t>
-  </si>
-  <si>
-    <t>23D</t>
-  </si>
-  <si>
-    <t>24D</t>
-  </si>
-  <si>
-    <t>25D</t>
-  </si>
-  <si>
-    <t>26D</t>
-  </si>
-  <si>
-    <t>27D</t>
-  </si>
-  <si>
     <t>2W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,10 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.2 운영 환경 계획</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,10 +321,6 @@
     <t>월</t>
   </si>
   <si>
-    <t>수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.1.4 ELK 보안 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,6 +338,10 @@
   </si>
   <si>
     <t>6.1.2 검색 기능 교육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,9 +660,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -704,9 +669,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,19 +720,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1089,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F753AA6-DE5C-49F2-BB7C-CC2DC561C87B}">
   <dimension ref="B2:BM52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1110,55 +1078,55 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="56"/>
+      <c r="C2" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="59">
         <v>44656</v>
       </c>
-      <c r="D3" s="56"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="56"/>
+      <c r="C4" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="54"/>
     </row>
     <row r="5" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="56"/>
+      <c r="C5" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="54"/>
     </row>
     <row r="6" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="59">
         <v>44659</v>
       </c>
-      <c r="D6" s="56"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="56"/>
+      <c r="C7" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="54"/>
     </row>
     <row r="9" spans="2:65" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="4"/>
@@ -1192,70 +1160,60 @@
       <c r="BM9" s="1"/>
     </row>
     <row r="10" spans="2:65" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="55" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="46"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="44"/>
     </row>
     <row r="11" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="61"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1313,34 +1271,18 @@
       <c r="Z11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AA11" s="8" t="s">
+      <c r="AA11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AB11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI11" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
@@ -1372,94 +1314,78 @@
       <c r="BM11" s="1"/>
     </row>
     <row r="12" spans="2:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="61"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="N12" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="O12" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="P12" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q12" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="R12" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="S12" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="T12" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="U12" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="V12" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="W12" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="X12" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y12" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z12" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA12" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB12" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC12" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD12" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE12" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF12" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG12" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH12" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI12" s="43" t="s">
-        <v>86</v>
-      </c>
+      <c r="I12" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="S12" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="T12" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="U12" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="V12" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="W12" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y12" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z12" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA12" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
@@ -1490,29 +1416,29 @@
       <c r="BM12" s="1"/>
     </row>
     <row r="13" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36" t="s">
-        <v>65</v>
+      <c r="B13" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F13" s="12">
         <v>1</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="53" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="41"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
-      <c r="L13" s="42"/>
+      <c r="L13" s="40"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
@@ -1527,15 +1453,15 @@
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
@@ -1571,22 +1497,22 @@
       <c r="B14" s="28"/>
       <c r="C14" s="16"/>
       <c r="D14" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="F14" s="18">
         <v>1</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="41"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="42"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
@@ -1601,15 +1527,15 @@
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
@@ -1645,15 +1571,15 @@
       <c r="B15" s="28"/>
       <c r="C15" s="16"/>
       <c r="D15" s="15" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F15" s="18">
         <v>1</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="13"/>
@@ -1661,7 +1587,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="42"/>
+      <c r="M15" s="40"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -1675,13 +1601,15 @@
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AI15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
@@ -1714,22 +1642,22 @@
       <c r="BM15" s="1"/>
     </row>
     <row r="16" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37" t="s">
-        <v>51</v>
+      <c r="B16" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F16" s="12">
         <v>1</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="47" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="13"/>
@@ -1737,8 +1665,8 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -1751,13 +1679,15 @@
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AI16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
@@ -1793,15 +1723,15 @@
       <c r="B17" s="29"/>
       <c r="C17" s="22"/>
       <c r="D17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="F17" s="18">
         <v>1</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="13"/>
@@ -1810,7 +1740,7 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="42"/>
+      <c r="N17" s="40"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -1823,13 +1753,15 @@
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AI17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
       <c r="BJ17" s="1"/>
       <c r="BK17" s="1"/>
@@ -1837,23 +1769,23 @@
       <c r="BM17" s="1"/>
     </row>
     <row r="18" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
-        <v>52</v>
+      <c r="B18" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>71</v>
+        <v>81</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>18</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="14"/>
@@ -1862,25 +1794,27 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
       <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AI18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
       <c r="BI18" s="1"/>
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
@@ -1891,15 +1825,15 @@
       <c r="B19" s="29"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="G19" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="49" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="13"/>
@@ -1912,40 +1846,40 @@
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
+      <c r="R19" s="40"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="42"/>
+      <c r="U19" s="14"/>
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="27"/>
+      <c r="AA19" s="60"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
     </row>
     <row r="20" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="29"/>
       <c r="C20" s="13" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F20" s="23">
         <v>0</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="49" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="13"/>
@@ -1959,39 +1893,39 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
+      <c r="S20" s="40"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="42"/>
+      <c r="V20" s="14"/>
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="27"/>
+      <c r="AA20" s="60"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
     </row>
     <row r="21" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="29"/>
       <c r="C21" s="13" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="F21" s="23">
         <v>1</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="49" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="13"/>
@@ -2005,41 +1939,41 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="13"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="13"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="27"/>
+      <c r="AA21" s="60"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
     </row>
     <row r="22" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="37" t="s">
-        <v>53</v>
+      <c r="B22" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F22" s="24">
         <v>1</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="50" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="13"/>
@@ -2054,36 +1988,36 @@
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="27"/>
+      <c r="AA22" s="60"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
     </row>
     <row r="23" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="29"/>
       <c r="C23" s="22"/>
       <c r="D23" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="F23" s="23">
         <v>1</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="49" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="13"/>
@@ -2101,33 +2035,33 @@
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
+      <c r="W23" s="40"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="27"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="60"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
     </row>
     <row r="24" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
       <c r="C24" s="22"/>
       <c r="D24" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="F24" s="23">
         <v>1</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="49" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="13"/>
@@ -2145,33 +2079,33 @@
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
       <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
+      <c r="W24" s="40"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="27"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="60"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
     </row>
     <row r="25" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="29"/>
       <c r="C25" s="22"/>
       <c r="D25" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>47</v>
+        <v>76</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="F25" s="23">
         <v>1</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="49" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="13"/>
@@ -2189,35 +2123,35 @@
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
+      <c r="W25" s="40"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="27"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="60"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
     </row>
     <row r="26" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="29"/>
-      <c r="C26" s="38" t="s">
-        <v>69</v>
+      <c r="C26" s="37" t="s">
+        <v>60</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="40">
+        <v>55</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="38">
         <v>1</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="51" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="13"/>
@@ -2232,39 +2166,39 @@
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
+      <c r="T26" s="13"/>
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
+      <c r="X26" s="40"/>
       <c r="Y26" s="14"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="27"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="27"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
     </row>
     <row r="27" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="29"/>
-      <c r="C27" s="38" t="s">
-        <v>56</v>
+      <c r="C27" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="40">
-        <v>0.6</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>16</v>
+        <v>67</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="38">
+        <v>1</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>15</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="14"/>
@@ -2278,40 +2212,40 @@
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
+      <c r="T27" s="13"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
+      <c r="W27" s="39"/>
       <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="27"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="27"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="1"/>
     </row>
     <row r="28" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="40">
-        <v>0</v>
-      </c>
-      <c r="G28" s="53" t="s">
+      <c r="B28" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="24">
+        <v>1</v>
+      </c>
+      <c r="G28" s="50" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="13"/>
@@ -2326,40 +2260,40 @@
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
+      <c r="T28" s="13"/>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="27"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="27"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
+      <c r="BM28" s="1"/>
     </row>
     <row r="29" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="37" t="s">
-        <v>88</v>
+      <c r="B29" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F29" s="24">
         <v>0</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="50" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="13"/>
@@ -2374,36 +2308,36 @@
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
+      <c r="T29" s="13"/>
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="27"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="27"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="1"/>
     </row>
     <row r="30" spans="2:65" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="30"/>
       <c r="C30" s="31"/>
       <c r="D30" s="31" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F30" s="33">
         <v>0</v>
       </c>
-      <c r="G30" s="54" t="s">
+      <c r="G30" s="52" t="s">
         <v>15</v>
       </c>
       <c r="H30" s="31"/>
@@ -2425,19 +2359,19 @@
       <c r="X30" s="34"/>
       <c r="Y30" s="34"/>
       <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="34"/>
-      <c r="AE30" s="34"/>
-      <c r="AF30" s="34"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="34"/>
-      <c r="AI30" s="35"/>
+      <c r="AA30" s="61"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
     </row>
     <row r="31" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="6"/>
-      <c r="F31" s="48"/>
+      <c r="F31" s="46"/>
     </row>
     <row r="32" spans="2:65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="6"/>
@@ -2548,6 +2482,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="B10:B12"/>
@@ -2555,11 +2494,6 @@
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
